--- a/Input data/Chemistry_data.xlsx
+++ b/Input data/Chemistry_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\PhD\Bottom-up &amp; scenarios\Modelling\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E285B-7FA0-4F93-BE4B-E9A0E6853F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BAF61-6AE9-483D-92B2-B57C5BB035A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -1283,16 +1283,16 @@
             <v>0.8</v>
           </cell>
           <cell r="D37">
-            <v>0.6</v>
+            <v>0.8</v>
           </cell>
           <cell r="E37">
-            <v>0.39999999999999997</v>
+            <v>0.8</v>
           </cell>
           <cell r="F37">
-            <v>0.19999999999999996</v>
+            <v>0.8</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
       </sheetData>
@@ -1625,16 +1625,16 @@
             <v>2.5</v>
           </cell>
           <cell r="D37">
-            <v>2.4</v>
+            <v>2.5</v>
           </cell>
           <cell r="E37">
-            <v>1.5999999999999999</v>
+            <v>2.5</v>
           </cell>
           <cell r="F37">
-            <v>0.79999999999999982</v>
+            <v>2.5</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1970,13 +1970,13 @@
             <v>0.1</v>
           </cell>
           <cell r="E37">
-            <v>6.666666666666668E-2</v>
+            <v>0.1</v>
           </cell>
           <cell r="F37">
-            <v>3.333333333333334E-2</v>
+            <v>0.1</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>
@@ -2312,13 +2312,13 @@
             <v>0.6</v>
           </cell>
           <cell r="E37">
-            <v>0.39999999999999997</v>
+            <v>0.6</v>
           </cell>
           <cell r="F37">
-            <v>0.19999999999999996</v>
+            <v>0.6</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.6</v>
           </cell>
         </row>
       </sheetData>
@@ -2654,13 +2654,13 @@
             <v>0.4</v>
           </cell>
           <cell r="E37">
-            <v>0.26666666666666672</v>
+            <v>0.4</v>
           </cell>
           <cell r="F37">
-            <v>0.13333333333333336</v>
+            <v>0.4</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
       </sheetData>
@@ -3400,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -5857,9 +5857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H7">
         <v>53</v>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="F43" s="12">
         <f>[1]France!$D37*1000000</f>
-        <v>600000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="F46" s="12">
         <f>[1]France!$E37*1000000</f>
-        <v>399999.99999999994</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="F49" s="12">
         <f>[1]France!$F37*1000000</f>
-        <v>199999.99999999994</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="F52" s="12">
         <f>[1]France!$G37*1000000</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="F58" s="12">
         <f>1000000*[1]Germany!$D37</f>
-        <v>2400000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="F61" s="12">
         <f>1000000*[1]Germany!$E37</f>
-        <v>1599999.9999999998</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="F64" s="12">
         <f>1000000*[1]Germany!$F37</f>
-        <v>799999.99999999977</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="F67" s="12">
         <f>1000000*[1]Germany!$G37</f>
-        <v>0</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="F76" s="12">
         <f>1000000*[1]Italy!$E37</f>
-        <v>66666.666666666686</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="F79" s="12">
         <f>1000000*[1]Italy!$F37</f>
-        <v>33333.333333333343</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="F82" s="12">
         <f>1000000*[1]Italy!$G37</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="F91">
         <f>1000000*'[1]Great Britain'!$E37</f>
-        <v>399999.99999999994</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="F94">
         <f>1000000*'[1]Great Britain'!$F37</f>
-        <v>199999.99999999994</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="F97">
         <f>1000000*'[1]Great Britain'!$G37</f>
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="F106">
         <f>1000000*[1]Spain!$E37</f>
-        <v>266666.66666666674</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="F109">
         <f>1000000*[1]Spain!$F37</f>
-        <v>133333.33333333337</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="F112">
         <f>1000000*[1]Spain!$G37</f>
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">

--- a/Input data/Chemistry_data.xlsx
+++ b/Input data/Chemistry_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\PhD\Bottom-up &amp; scenarios\Modelling\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BAF61-6AE9-483D-92B2-B57C5BB035A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A52876-BC6A-45F1-BBEF-49A50D7FDC55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="108">
   <si>
     <t>RESOURCES</t>
   </si>
@@ -3013,11 +3013,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E816912D-0BDF-41DD-ABBC-F7764F32EC0A}" name="Tableau4" displayName="Tableau4" ref="A1:F180" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:F180" xr:uid="{0228EFE9-A26D-47DE-80C5-467BC8C55473}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E816912D-0BDF-41DD-ABBC-F7764F32EC0A}" name="Tableau4" displayName="Tableau4" ref="A1:F179" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:F179" xr:uid="{0228EFE9-A26D-47DE-80C5-467BC8C55473}">
     <filterColumn colId="4">
       <filters>
-        <filter val="flow_cost_t"/>
+        <filter val="capex"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3398,10 +3398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3448,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3459,28 +3459,28 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3489,48 +3489,49 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>71</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2015</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2050</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <f>3450*0.94</f>
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -3540,33 +3541,33 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12">
-        <f>3450*0.94</f>
+        <f t="shared" ref="F12:F14" si="0">3450*0.94</f>
         <v>3243</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F15" si="0">3450*0.94</f>
+        <f t="shared" si="0"/>
         <v>3243</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -3576,33 +3577,32 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>3450*0.94</f>
         <v>3243</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <f>3450*0.94</f>
-        <v>3243</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -3657,38 +3657,45 @@
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="F22">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>5443</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>2015</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]France!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3696,17 +3703,17 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
       <c r="F25">
-        <f>[1]France!$C$17</f>
+        <f>[1]France!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3714,37 +3721,30 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26">
-        <f>[1]France!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]France!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>2030</v>
-      </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <f>[1]France!$E$17</f>
-        <v>1074.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3755,13 +3755,17 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29">
-        <v>30</v>
+      <c r="F29" s="8">
+        <f>60000/8760</f>
+        <v>6.8493150684931505</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3769,40 +3773,39 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="8">
-        <f>60000/8760</f>
-        <v>6.8493150684931505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>2050</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="8">
         <f>100000/8760</f>
         <v>11.415525114155251</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
+      </c>
+      <c r="F32">
+        <v>1488</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3813,24 +3816,24 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>76.42</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3841,29 +3844,29 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F35">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>76.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -3872,12 +3875,12 @@
         <v>29</v>
       </c>
       <c r="F37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -3885,13 +3888,13 @@
       <c r="E38" t="s">
         <v>29</v>
       </c>
-      <c r="F38">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
@@ -3899,13 +3902,13 @@
       <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
@@ -3914,12 +3917,12 @@
         <v>29</v>
       </c>
       <c r="F40">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3928,12 +3931,12 @@
         <v>29</v>
       </c>
       <c r="F41">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -3942,12 +3945,12 @@
         <v>29</v>
       </c>
       <c r="F42">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -3959,9 +3962,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -3970,12 +3973,12 @@
         <v>29</v>
       </c>
       <c r="F44">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -3987,9 +3990,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -4001,9 +4004,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -4015,9 +4018,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -4026,59 +4029,59 @@
         <v>29</v>
       </c>
       <c r="F48">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
       </c>
       <c r="F49">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F50">
-        <v>2000</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51">
-        <v>5443</v>
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>2015</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>2015</v>
@@ -4092,7 +4095,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>2015</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2015</v>
@@ -4120,7 +4123,7 @@
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>2015</v>
@@ -4134,7 +4137,7 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>2015</v>
@@ -4148,7 +4151,7 @@
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>2015</v>
@@ -4162,7 +4165,7 @@
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>2015</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2015</v>
@@ -4190,7 +4193,7 @@
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>2015</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>2015</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>2015</v>
@@ -4232,7 +4235,7 @@
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>2015</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>2015</v>
@@ -4260,7 +4263,7 @@
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>2015</v>
@@ -4274,7 +4277,7 @@
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67">
         <v>2015</v>
@@ -4288,7 +4291,7 @@
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D68">
         <v>2015</v>
@@ -4302,7 +4305,7 @@
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>2015</v>
@@ -4316,7 +4319,7 @@
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>2015</v>
@@ -4330,32 +4333,29 @@
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71">
-        <v>2015</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
         <v>84</v>
       </c>
       <c r="F71" s="12">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
         <v>84</v>
       </c>
       <c r="F72" s="12">
-        <v>200000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
         <v>84</v>
@@ -4366,29 +4366,29 @@
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
         <v>84</v>
       </c>
       <c r="F74" s="12">
-        <v>25000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
         <v>84</v>
       </c>
       <c r="F75" s="12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>84</v>
@@ -4399,18 +4399,19 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="12">
-        <v>1000000</v>
+        <f>1000000/2</f>
+        <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
@@ -4422,19 +4423,18 @@
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="12">
-        <f>1000000/2</f>
-        <v>500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
         <v>84</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>84</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -4467,18 +4467,18 @@
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="12">
-        <v>250000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
         <v>84</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
         <v>84</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E87" t="s">
         <v>84</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
         <v>84</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
         <v>84</v>
@@ -4544,29 +4544,29 @@
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="12">
-        <v>500000</v>
+        <v>80</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>68</v>
+      <c r="F91" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
         <v>80</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
         <v>80</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
         <v>80</v>
@@ -4599,18 +4599,18 @@
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
         <v>80</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
         <v>80</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97" t="s">
         <v>80</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
         <v>80</v>
@@ -4643,18 +4643,18 @@
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
         <v>80</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E100" t="s">
         <v>80</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
         <v>80</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
         <v>80</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
         <v>80</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
         <v>80</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" t="s">
         <v>80</v>
@@ -4720,16 +4720,23 @@
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>2040</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
-      </c>
-      <c r="F106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F106">
+        <f>[1]France!$F$17</f>
+        <v>924.8599999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -4737,35 +4744,35 @@
         <v>24</v>
       </c>
       <c r="D107">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
       </c>
       <c r="F107">
-        <f>[1]France!$F$17</f>
-        <v>924.8599999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]France!$G$17</f>
+        <v>775.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
       </c>
       <c r="F108">
-        <f>[1]France!$G$17</f>
-        <v>775.52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Germany!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -4773,17 +4780,17 @@
         <v>25</v>
       </c>
       <c r="D109">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
       </c>
       <c r="F109">
-        <f>[1]Germany!$C$17</f>
+        <f>[1]Germany!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -4791,17 +4798,17 @@
         <v>25</v>
       </c>
       <c r="D110">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
       </c>
       <c r="F110">
-        <f>[1]Germany!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Germany!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -4809,17 +4816,17 @@
         <v>25</v>
       </c>
       <c r="D111">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
       </c>
       <c r="F111">
-        <f>[1]Germany!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Germany!$F$17</f>
+        <v>1018.9616666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -4827,35 +4834,35 @@
         <v>25</v>
       </c>
       <c r="D112">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
       </c>
       <c r="F112">
-        <f>[1]Germany!$F$17</f>
-        <v>1018.9616666666666</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Germany!$G$17</f>
+        <v>963.72333333333347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D113">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
       </c>
       <c r="F113">
-        <f>[1]Germany!$G$17</f>
-        <v>963.72333333333347</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Italy!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -4863,17 +4870,17 @@
         <v>87</v>
       </c>
       <c r="D114">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
       </c>
       <c r="F114">
-        <f>[1]Italy!$C$17</f>
+        <f>[1]Italy!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -4881,17 +4888,17 @@
         <v>87</v>
       </c>
       <c r="D115">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
       </c>
       <c r="F115">
-        <f>[1]Italy!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Italy!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -4899,17 +4906,17 @@
         <v>87</v>
       </c>
       <c r="D116">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
       </c>
       <c r="F116">
-        <f>[1]Italy!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Italy!$F$17</f>
+        <v>953.68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -4917,35 +4924,35 @@
         <v>87</v>
       </c>
       <c r="D117">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
       </c>
       <c r="F117">
-        <f>[1]Italy!$F$17</f>
-        <v>953.68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Italy!$G$17</f>
+        <v>833.16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D118">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
       </c>
       <c r="F118">
-        <f>[1]Italy!$G$17</f>
-        <v>833.16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'[1]Great Britain'!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -4953,17 +4960,17 @@
         <v>88</v>
       </c>
       <c r="D119">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
       </c>
       <c r="F119">
-        <f>'[1]Great Britain'!$C$17</f>
+        <f>'[1]Great Britain'!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -4971,17 +4978,17 @@
         <v>88</v>
       </c>
       <c r="D120">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
       </c>
       <c r="F120">
-        <f>'[1]Great Britain'!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'[1]Great Britain'!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -4989,17 +4996,17 @@
         <v>88</v>
       </c>
       <c r="D121">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
       </c>
       <c r="F121">
-        <f>'[1]Great Britain'!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'[1]Great Britain'!$F$17</f>
+        <v>940.04409090909098</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -5007,35 +5014,35 @@
         <v>88</v>
       </c>
       <c r="D122">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
       </c>
       <c r="F122">
-        <f>'[1]Great Britain'!$F$17</f>
-        <v>940.04409090909098</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <f>'[1]Great Britain'!$G$17</f>
+        <v>805.88818181818181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D123">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
       </c>
       <c r="F123">
-        <f>'[1]Great Britain'!$G$17</f>
-        <v>805.88818181818181</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Spain!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -5043,17 +5050,17 @@
         <v>89</v>
       </c>
       <c r="D124">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
       </c>
       <c r="F124">
-        <f>[1]Spain!$C$17</f>
+        <f>[1]Spain!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -5061,17 +5068,17 @@
         <v>89</v>
       </c>
       <c r="D125">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
       </c>
       <c r="F125">
-        <f>[1]Spain!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Spain!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -5079,17 +5086,17 @@
         <v>89</v>
       </c>
       <c r="D126">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
       </c>
       <c r="F126">
-        <f>[1]Spain!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Spain!$F$17</f>
+        <v>918.2632142857143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -5097,35 +5104,35 @@
         <v>89</v>
       </c>
       <c r="D127">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
       </c>
       <c r="F127">
-        <f>[1]Spain!$F$17</f>
-        <v>918.2632142857143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Spain!$G$17</f>
+        <v>762.32642857142866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D128">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
       </c>
       <c r="F128">
-        <f>[1]Spain!$G$17</f>
-        <v>762.32642857142866</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Belgium!$C$17</f>
+        <v>1598.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -5133,17 +5140,17 @@
         <v>90</v>
       </c>
       <c r="D129">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
       </c>
       <c r="F129">
-        <f>[1]Belgium!$C$17</f>
+        <f>[1]Belgium!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -5151,17 +5158,17 @@
         <v>90</v>
       </c>
       <c r="D130">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
       </c>
       <c r="F130">
-        <f>[1]Belgium!$D$17</f>
-        <v>1598.2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Belgium!$E$17</f>
+        <v>1074.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -5169,17 +5176,17 @@
         <v>90</v>
       </c>
       <c r="D131">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
       </c>
       <c r="F131">
-        <f>[1]Belgium!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Belgium!$F$17</f>
+        <v>910.44999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -5187,37 +5194,30 @@
         <v>90</v>
       </c>
       <c r="D132">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
       </c>
       <c r="F132">
-        <f>[1]Belgium!$F$17</f>
-        <v>910.44999999999993</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <f>[1]Belgium!$G$17</f>
+        <v>746.69999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
-      <c r="C133" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133">
-        <v>2050</v>
-      </c>
       <c r="E133" t="s">
-        <v>33</v>
-      </c>
-      <c r="F133">
-        <f>[1]Belgium!$G$17</f>
-        <v>746.69999999999993</v>
+        <v>80</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E134" t="s">
         <v>80</v>
@@ -5228,62 +5228,62 @@
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
         <v>80</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E136" t="s">
         <v>80</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E137" t="s">
         <v>80</v>
       </c>
       <c r="F137" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E138" t="s">
         <v>80</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
         <v>80</v>
       </c>
       <c r="F139" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
         <v>80</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
         <v>80</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E142" t="s">
         <v>80</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
         <v>80</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E144" t="s">
         <v>80</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E145" t="s">
         <v>80</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
         <v>80</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E148" t="s">
         <v>80</v>
@@ -5382,29 +5382,29 @@
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E149" t="s">
-        <v>80</v>
-      </c>
-      <c r="F149" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
       </c>
       <c r="F150">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -5558,18 +5558,18 @@
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
       </c>
       <c r="F165">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -5591,18 +5591,18 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
       </c>
       <c r="F168">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -5613,29 +5613,29 @@
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
       </c>
       <c r="F170">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
       </c>
       <c r="F171">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E176" t="s">
         <v>30</v>
@@ -5690,18 +5690,18 @@
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
       </c>
       <c r="F177">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -5712,23 +5712,12 @@
     </row>
     <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
       </c>
       <c r="F179">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>32</v>
-      </c>
-      <c r="E180" t="s">
-        <v>30</v>
-      </c>
-      <c r="F180">
         <v>30</v>
       </c>
     </row>
@@ -5858,8 +5847,8 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,6 +6661,10 @@
       </c>
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
+      <c r="X27">
+        <f>-2.75*K27</f>
+        <v>-0.36913953488372092</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
